--- a/public/data/house_type.xlsx
+++ b/public/data/house_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojin/Downloads/서울 데이터 허브/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojin/project/seoul-datahub-visualization/visualization/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3768B9-33EF-4F43-B940-5461A035C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4621CC-BA62-CA42-A7C7-4D9AC3BE244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2260" windowWidth="28100" windowHeight="17380" xr2:uid="{C9D9D86F-FD23-C143-BF43-0594AA5D149E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{C9D9D86F-FD23-C143-BF43-0594AA5D149E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,8 +131,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1039703</v>
+        <v>115350</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1713267</v>
+        <v>226726</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>104234</v>
+        <v>15878</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>748187</v>
+        <v>106818</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>78394</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>298505</v>
+        <v>24956</v>
       </c>
     </row>
     <row r="8" spans="1:2">
